--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24E6227-15C2-447E-A586-EFE31F77BC31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F3778E-47A2-4D2E-A141-EECBF76C0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3225" yWindow="3690" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
   <si>
     <t>Примечания</t>
   </si>
@@ -101,7 +101,10 @@
     <t>воскресенье</t>
   </si>
   <si>
-    <t>formatting the code ..</t>
+    <t xml:space="preserve">formatting the code .. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revise math … vidio 2 </t>
   </si>
 </sst>
 </file>
@@ -115,7 +118,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -342,6 +345,14 @@
       <color rgb="FFC00000"/>
       <name val="Century Gothic"/>
       <family val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFC000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1060,7 +1071,7 @@
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1187,6 +1198,9 @@
     <xf numFmtId="166" fontId="4" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1250,7 +1264,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2293,7 +2307,7 @@
   </sheetPr>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2315,12 +2329,12 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Январь "&amp;ГодКалендаря</f>
         <v>Январь 2023</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2355,10 +2369,10 @@
         <f t="shared" si="0"/>
         <v>суббота</v>
       </c>
-      <c r="K3" s="47" t="s">
+      <c r="K3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="47"/>
+      <c r="L3" s="48"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29">
@@ -2545,22 +2559,22 @@
       <c r="C14" s="31">
         <v>44963</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:12" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2635,12 +2649,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="59" t="str">
         <f>"Октябрь "&amp;ГодКалендаря</f>
         <v>Октябрь 2023</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2849,22 +2863,22 @@
       <c r="C14" s="34">
         <v>45236</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2926,12 +2940,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="59" t="str">
         <f>"Ноябрь "&amp;ГодКалендаря</f>
         <v>Ноябрь 2023</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3140,22 +3154,22 @@
       <c r="C14" s="34">
         <v>45264</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3217,12 +3231,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Декабрь "&amp;ГодКалендаря</f>
         <v>Декабрь 2023</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3431,22 +3445,22 @@
       <c r="C14" s="31">
         <v>45292</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3508,12 +3522,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="str">
+      <c r="B2" s="43" t="str">
         <f>"Февраль "&amp;ГодКалендаря</f>
         <v>Февраль 2023</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3722,22 +3736,22 @@
       <c r="C14" s="31">
         <v>44991</v>
       </c>
-      <c r="D14" s="43" t="s">
+      <c r="D14" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="45"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3799,12 +3813,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Март "&amp;ГодКалендаря</f>
         <v>Март 2023</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4013,22 +4027,22 @@
       <c r="C14" s="40">
         <v>45019</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4090,12 +4104,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Апрель "&amp;ГодКалендаря</f>
         <v>Апрель 2023</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4304,22 +4318,22 @@
       <c r="C14" s="40">
         <v>45047</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4381,12 +4395,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="48" t="str">
+      <c r="B2" s="49" t="str">
         <f>"Май "&amp;ГодКалендаря</f>
         <v>Май 2023</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4595,22 +4609,22 @@
       <c r="C14" s="40">
         <v>45082</v>
       </c>
-      <c r="D14" s="49" t="s">
+      <c r="D14" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4672,12 +4686,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="54" t="str">
         <f>"Июнь "&amp;ГодКалендаря</f>
         <v>Июнь 2023</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4886,22 +4900,22 @@
       <c r="C14" s="37">
         <v>45110</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4963,12 +4977,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="54" t="str">
         <f>"Июль "&amp;ГодКалендаря</f>
         <v>Июль 2023</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5177,22 +5191,22 @@
       <c r="C14" s="37">
         <v>45138</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5254,12 +5268,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="53" t="str">
+      <c r="B2" s="54" t="str">
         <f>"Август "&amp;ГодКалендаря</f>
         <v>Август 2023</v>
       </c>
-      <c r="C2" s="53"/>
-      <c r="D2" s="53"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5468,22 +5482,22 @@
       <c r="C14" s="37">
         <v>45173</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="56"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5529,7 +5543,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5547,12 +5561,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="58" t="str">
+      <c r="B2" s="59" t="str">
         <f>"Сентябрь "&amp;ГодКалендаря</f>
         <v>Сентябрь 2023</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5713,10 +5727,12 @@
     </row>
     <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
-      <c r="C11" s="63" t="s">
+      <c r="C11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="27"/>
+      <c r="D11" s="64" t="s">
+        <v>7</v>
+      </c>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
       <c r="G11" s="27"/>
@@ -5763,22 +5779,22 @@
       <c r="C14" s="34">
         <v>45201</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="61"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="61"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5816,6 +5832,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6036,25 +6070,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6071,22 +6105,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2F3778E-47A2-4D2E-A141-EECBF76C0C23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC1AF3-6C3A-4168-9FD5-829084ED7DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3225" yWindow="3690" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -104,7 +104,7 @@
     <t xml:space="preserve">formatting the code .. </t>
   </si>
   <si>
-    <t xml:space="preserve">Revise math … vidio 2 </t>
+    <t>Revise math … vidio 2  .. rewrite all tasks separately</t>
   </si>
 </sst>
 </file>
@@ -1201,6 +1201,9 @@
     <xf numFmtId="0" fontId="34" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1262,9 +1265,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2307,7 +2307,7 @@
   </sheetPr>
   <dimension ref="B1:L15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -2329,12 +2329,12 @@
       </c>
     </row>
     <row r="2" spans="2:12" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="44" t="str">
         <f>"Январь "&amp;ГодКалендаря</f>
         <v>Январь 2023</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2369,10 +2369,10 @@
         <f t="shared" si="0"/>
         <v>суббота</v>
       </c>
-      <c r="K3" s="48" t="s">
+      <c r="K3" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="48"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="2:12" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="29">
@@ -2559,22 +2559,22 @@
       <c r="C14" s="31">
         <v>44963</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="2:12" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2632,7 +2632,7 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2649,12 +2649,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Октябрь "&amp;ГодКалендаря</f>
         <v>Октябрь 2023</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2863,22 +2863,22 @@
       <c r="C14" s="34">
         <v>45236</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2940,12 +2940,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Ноябрь "&amp;ГодКалендаря</f>
         <v>Ноябрь 2023</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3154,22 +3154,22 @@
       <c r="C14" s="34">
         <v>45264</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3231,12 +3231,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="44" t="str">
         <f>"Декабрь "&amp;ГодКалендаря</f>
         <v>Декабрь 2023</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3445,22 +3445,22 @@
       <c r="C14" s="31">
         <v>45292</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3522,12 +3522,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="43" t="str">
+      <c r="B2" s="44" t="str">
         <f>"Февраль "&amp;ГодКалендаря</f>
         <v>Февраль 2023</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -3736,22 +3736,22 @@
       <c r="C14" s="31">
         <v>44991</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3813,12 +3813,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Март "&amp;ГодКалендаря</f>
         <v>Март 2023</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4027,22 +4027,22 @@
       <c r="C14" s="40">
         <v>45019</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4104,12 +4104,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Апрель "&amp;ГодКалендаря</f>
         <v>Апрель 2023</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4318,22 +4318,22 @@
       <c r="C14" s="40">
         <v>45047</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4395,12 +4395,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="50" t="str">
         <f>"Май "&amp;ГодКалендаря</f>
         <v>Май 2023</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4609,22 +4609,22 @@
       <c r="C14" s="40">
         <v>45082</v>
       </c>
-      <c r="D14" s="50" t="s">
+      <c r="D14" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="50"/>
-      <c r="H14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4686,12 +4686,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="55" t="str">
         <f>"Июнь "&amp;ГодКалендаря</f>
         <v>Июнь 2023</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -4900,22 +4900,22 @@
       <c r="C14" s="37">
         <v>45110</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4977,12 +4977,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="55" t="str">
         <f>"Июль "&amp;ГодКалендаря</f>
         <v>Июль 2023</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5191,22 +5191,22 @@
       <c r="C14" s="37">
         <v>45138</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5268,12 +5268,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="54" t="str">
+      <c r="B2" s="55" t="str">
         <f>"Август "&amp;ГодКалендаря</f>
         <v>Август 2023</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5482,22 +5482,22 @@
       <c r="C14" s="37">
         <v>45173</v>
       </c>
-      <c r="D14" s="55" t="s">
+      <c r="D14" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="25"/>
       <c r="C15" s="25"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="57"/>
-      <c r="G15" s="57"/>
-      <c r="H15" s="58"/>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="58"/>
+      <c r="H15" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5542,8 +5542,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5561,12 +5561,12 @@
       </c>
     </row>
     <row r="2" spans="2:9" ht="96" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="str">
+      <c r="B2" s="60" t="str">
         <f>"Сентябрь "&amp;ГодКалендаря</f>
         <v>Сентябрь 2023</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -5730,7 +5730,7 @@
       <c r="C11" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="64" t="s">
+      <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
       <c r="E11" s="27"/>
@@ -5779,22 +5779,22 @@
       <c r="C14" s="34">
         <v>45201</v>
       </c>
-      <c r="D14" s="60" t="s">
+      <c r="D14" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="27"/>
       <c r="C15" s="27"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="63"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="63"/>
+      <c r="F15" s="63"/>
+      <c r="G15" s="63"/>
+      <c r="H15" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5832,24 +5832,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6070,25 +6052,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6105,4 +6087,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4EC1AF3-6C3A-4168-9FD5-829084ED7DEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC3A33-FDDC-49B0-9341-F21EBBB51DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>Примечания</t>
   </si>
@@ -104,7 +104,25 @@
     <t xml:space="preserve">formatting the code .. </t>
   </si>
   <si>
-    <t>Revise math … vidio 2  .. rewrite all tasks separately</t>
+    <t>нет  работа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет  работа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Выходной </t>
+  </si>
+  <si>
+    <t xml:space="preserve">нет работа </t>
+  </si>
+  <si>
+    <t xml:space="preserve">выходной </t>
+  </si>
+  <si>
+    <t>выходной</t>
+  </si>
+  <si>
+    <t>перевод  на  другой  предприятие  расформирование</t>
   </si>
 </sst>
 </file>
@@ -2632,7 +2650,9 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2715,13 +2735,27 @@
       </c>
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="B5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
@@ -2748,13 +2782,27 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
@@ -2781,11 +2829,21 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>13</v>
+      </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
@@ -5542,8 +5600,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5733,10 +5791,18 @@
       <c r="D11" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="27"/>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-      <c r="H11" s="27"/>
+      <c r="E11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="27" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -5763,13 +5829,27 @@
       </c>
     </row>
     <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="B13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
@@ -5788,8 +5868,12 @@
       <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27"/>
-      <c r="C15" s="27"/>
+      <c r="B15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
@@ -5832,6 +5916,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6052,25 +6154,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6087,22 +6189,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFC3A33-FDDC-49B0-9341-F21EBBB51DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C6C2E-17BF-4A7A-9E07-5DD9964F611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25755" yWindow="2295" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
   <si>
     <t>Примечания</t>
   </si>
@@ -108,9 +108,6 @@
   </si>
   <si>
     <t xml:space="preserve">нет  работа </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выходной </t>
   </si>
   <si>
     <t xml:space="preserve">нет работа </t>
@@ -2650,7 +2647,7 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
@@ -2736,7 +2733,7 @@
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="28" t="s">
         <v>7</v>
@@ -2745,10 +2742,10 @@
         <v>7</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="28" t="s">
         <v>7</v>
@@ -2783,10 +2780,10 @@
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>7</v>
@@ -2795,10 +2792,10 @@
         <v>7</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>7</v>
@@ -2833,16 +2830,16 @@
         <v>7</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="F9" s="28" t="s">
         <v>12</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>13</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5600,8 +5597,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5795,10 +5792,10 @@
         <v>8</v>
       </c>
       <c r="F11" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="27" t="s">
         <v>9</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>10</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>8</v>
@@ -5830,10 +5827,10 @@
     </row>
     <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>8</v>
@@ -5842,10 +5839,10 @@
         <v>8</v>
       </c>
       <c r="F13" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G13" s="28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="H13" s="28" t="s">
         <v>7</v>
@@ -5872,7 +5869,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
@@ -5916,24 +5913,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6154,25 +6133,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6189,4 +6168,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B26C6C2E-17BF-4A7A-9E07-5DD9964F611F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5862E95-E4B2-4F68-9016-8979FF536762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25755" yWindow="2295" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3735" yWindow="3915" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
   <si>
     <t>Примечания</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>перевод  на  другой  предприятие  расформирование</t>
+  </si>
+  <si>
+    <t xml:space="preserve">В редакци  до  9  или 11 </t>
   </si>
 </sst>
 </file>
@@ -5598,7 +5601,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5830,13 +5833,13 @@
         <v>10</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>8</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F13" s="28" t="s">
         <v>11</v>
@@ -5857,7 +5860,7 @@
         <v>45201</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
@@ -5913,6 +5916,24 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6133,25 +6154,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6168,22 +6189,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5862E95-E4B2-4F68-9016-8979FF536762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4201C-41DC-43A9-8639-016D9F41827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="3915" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4380" yWindow="975" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
   <si>
     <t>Примечания</t>
   </si>
@@ -101,19 +101,7 @@
     <t>воскресенье</t>
   </si>
   <si>
-    <t xml:space="preserve">formatting the code .. </t>
-  </si>
-  <si>
     <t>нет  работа</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет  работа </t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет работа </t>
-  </si>
-  <si>
-    <t xml:space="preserve">выходной </t>
   </si>
   <si>
     <t>выходной</t>
@@ -122,7 +110,7 @@
     <t>перевод  на  другой  предприятие  расформирование</t>
   </si>
   <si>
-    <t xml:space="preserve">В редакци  до  9  или 11 </t>
+    <t xml:space="preserve">День рабочий </t>
   </si>
 </sst>
 </file>
@@ -2650,8 +2638,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2735,27 +2723,13 @@
       </c>
     </row>
     <row r="5" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
@@ -2782,23 +2756,17 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="B7" s="27"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
       <c r="E7" s="27" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>7</v>
@@ -2830,19 +2798,19 @@
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="28" t="s">
-        <v>11</v>
-      </c>
       <c r="D9" s="28" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
@@ -5600,8 +5568,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -5785,24 +5753,12 @@
     </row>
     <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="27"/>
-      <c r="C11" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>8</v>
-      </c>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="35">
@@ -5829,27 +5785,13 @@
       </c>
     </row>
     <row r="13" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="28" t="s">
-        <v>7</v>
-      </c>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
     </row>
     <row r="14" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="34">
@@ -5860,7 +5802,7 @@
         <v>45201</v>
       </c>
       <c r="D14" s="61" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E14" s="61"/>
       <c r="F14" s="61"/>
@@ -5868,12 +5810,8 @@
       <c r="H14" s="62"/>
     </row>
     <row r="15" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>11</v>
-      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="27"/>
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
@@ -5916,24 +5854,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="426e97fa315356fffbdcd9876fe988c2">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="14b8f0def80e6d70ce3def20c90759ae" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -6154,25 +6074,25 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{65DF88E0-C534-44A9-B15A-DDE8DD22045C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6189,4 +6109,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4201C-41DC-43A9-8639-016D9F41827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BC2D5FD-76F1-44AF-B178-CD5BBE7B286A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="975" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="825" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="8">
   <si>
     <t>Примечания</t>
   </si>
@@ -101,16 +101,10 @@
     <t>воскресенье</t>
   </si>
   <si>
-    <t>нет  работа</t>
+    <t>Рабочий День</t>
   </si>
   <si>
-    <t>выходной</t>
-  </si>
-  <si>
-    <t>перевод  на  другой  предприятие  расформирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">День рабочий </t>
+    <t>Нерабочий</t>
   </si>
 </sst>
 </file>
@@ -2638,7 +2632,7 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2759,18 +2753,14 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>9</v>
-      </c>
+      <c r="E7" s="27"/>
       <c r="F7" s="27" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
@@ -2797,21 +2787,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
@@ -2949,7 +2929,9 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3035,10 +3017,18 @@
       <c r="B5" s="28"/>
       <c r="C5" s="28"/>
       <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="E5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
@@ -3240,7 +3230,9 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>

--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CF4201C-41DC-43A9-8639-016D9F41827B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803A926-1D01-4BDC-807E-F1092226C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4380" yWindow="975" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="788" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
   <si>
     <t>Примечания</t>
   </si>
@@ -101,16 +101,10 @@
     <t>воскресенье</t>
   </si>
   <si>
-    <t>нет  работа</t>
+    <t>working</t>
   </si>
   <si>
-    <t>выходной</t>
-  </si>
-  <si>
-    <t>перевод  на  другой  предприятие  расформирование</t>
-  </si>
-  <si>
-    <t xml:space="preserve">День рабочий </t>
+    <t>not working tuition</t>
   </si>
 </sst>
 </file>
@@ -2638,8 +2632,8 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2759,18 +2753,10 @@
       <c r="B7" s="27"/>
       <c r="C7" s="27"/>
       <c r="D7" s="27"/>
-      <c r="E7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>7</v>
-      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
@@ -2797,21 +2783,11 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="28" t="s">
-        <v>8</v>
-      </c>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
       <c r="G9" s="28"/>
       <c r="H9" s="28"/>
     </row>
@@ -2949,7 +2925,9 @@
   </sheetPr>
   <dimension ref="B1:I15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3037,8 +3015,12 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="G5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="34">
@@ -3065,8 +3047,12 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="27"/>
+      <c r="B7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>6</v>
+      </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
       <c r="F7" s="27"/>
@@ -6075,21 +6061,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6112,14 +6098,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6127,4 +6105,12 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/formating_code/Kanban_cal/Kanban_Board.xlsx
+++ b/formating_code/Kanban_cal/Kanban_Board.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6803A926-1D01-4BDC-807E-F1092226C9DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B1C418-209A-4B2B-928D-C2D113D3901B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" tabRatio="788" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5175" yWindow="1440" windowWidth="21600" windowHeight="11505" tabRatio="788" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Январь" sheetId="14" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="9">
   <si>
     <t>Примечания</t>
   </si>
@@ -106,6 +106,9 @@
   <si>
     <t>not working tuition</t>
   </si>
+  <si>
+    <t xml:space="preserve">working </t>
+  </si>
 </sst>
 </file>
 
@@ -118,7 +121,7 @@
     <numFmt numFmtId="167" formatCode="_-* #,##0.00\ &quot;lei&quot;_-;\-* #,##0.00\ &quot;lei&quot;_-;_-* &quot;-&quot;??\ &quot;lei&quot;_-;_-@_-"/>
     <numFmt numFmtId="168" formatCode="_-* #,##0\ &quot;lei&quot;_-;\-* #,##0\ &quot;lei&quot;_-;_-* &quot;-&quot;\ &quot;lei&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="36" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1" tint="0.24994659260841701"/>
@@ -353,6 +356,12 @@
       <name val="Century Gothic"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Century Gothic"/>
+      <family val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1071,7 +1080,7 @@
     <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
@@ -1265,6 +1274,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="11" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="27" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -2926,7 +2941,7 @@
   <dimension ref="B1:I15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -3015,10 +3030,10 @@
       <c r="D5" s="28"/>
       <c r="E5" s="28"/>
       <c r="F5" s="28"/>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="65" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="28" t="s">
+      <c r="H5" s="65" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3047,17 +3062,27 @@
       </c>
     </row>
     <row r="7" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="66" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
+      <c r="D7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="35">
@@ -3084,13 +3109,27 @@
       </c>
     </row>
     <row r="9" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
+      <c r="B9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="2:9" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="34">
@@ -3117,8 +3156,12 @@
       </c>
     </row>
     <row r="11" spans="2:9" s="10" customFormat="1" ht="56.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="27"/>
-      <c r="C11" s="27"/>
+      <c r="B11" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>7</v>
+      </c>
       <c r="D11" s="27"/>
       <c r="E11" s="27"/>
       <c r="F11" s="27"/>
@@ -6061,21 +6104,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
     <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6098,6 +6141,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{160D437D-D97C-4174-9BD0-B6C4706C93C2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -6105,12 +6156,4 @@
     <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF997A1-6F4D-40DF-902F-6A09A77F9752}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>